--- a/biology/Botanique/Ferocactus/Ferocactus.xlsx
+++ b/biology/Botanique/Ferocactus/Ferocactus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ferocactus est un genre de la famille des cactus composé de 30 espèces.
 Certaines espèces étaient logées précédemment dans le genre Echinocactus.
@@ -521,8 +533,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Espèces
-Ferocactus alamosanus
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferocactus alamosanus
 Ferocactus chrysacanthus
 Ferocactus cylindraceus - California Barrel Cactus, Cliff Barrel, Compass Barrel, Compass Cactus, Desert Barrel, Golden-Spined Barrel, Spiny Barrel Cactus
 Ferocactus diguetii
@@ -551,9 +568,43 @@
 Ferocactus townsendianus
 Ferocactus viridescens - Coast Barrel Cactus, Keg Cactus, Green-stemmed Viznaga, San Diego Barrel Cactus, Sisal (unrelated to Sisal)
 Ferocactus wislizeni - Fishhook Barrel Cactus, Arizona Barrel Cactus, Candy Barrel Cactus, Southwestern Barrel Cactus
-[1]
-Synonymes
-Bisnaga Orcutt
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ferocactus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferocactus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bisnaga Orcutt
 Brittonia C. A. Armstr. (nom. inval.).</t>
         </is>
       </c>
